--- a/data/periodic_dataset_Mortality_Dev.xlsx
+++ b/data/periodic_dataset_Mortality_Dev.xlsx
@@ -24,9 +24,6 @@
     <t>Grading</t>
   </si>
   <si>
-    <t>Vacinated</t>
-  </si>
-  <si>
     <t>Feeder</t>
   </si>
   <si>
@@ -34,9 +31,6 @@
   </si>
   <si>
     <t>Av.Wt.Class</t>
-  </si>
-  <si>
-    <t>HATCHERY-B</t>
   </si>
   <si>
     <t>C</t>
@@ -49,9 +43,6 @@
   </si>
   <si>
     <t>500-600</t>
-  </si>
-  <si>
-    <t>HATCHERY-C</t>
   </si>
   <si>
     <t>A</t>
@@ -76,9 +67,6 @@
   </si>
   <si>
     <t>350-500</t>
-  </si>
-  <si>
-    <t>HATCHERY-A</t>
   </si>
   <si>
     <t>FEED8</t>
@@ -108,9 +96,6 @@
     <t>FEED1</t>
   </si>
   <si>
-    <t>Socking.Month</t>
-  </si>
-  <si>
     <t>Stocking.Year</t>
   </si>
   <si>
@@ -123,7 +108,22 @@
     <t>Hatchery.Quality</t>
   </si>
   <si>
-    <t>Mortality % Deviation</t>
+    <t>Vaccinated</t>
+  </si>
+  <si>
+    <t>Stocking.Month</t>
+  </si>
+  <si>
+    <t>HATCHERYB</t>
+  </si>
+  <si>
+    <t>HATCHERYA</t>
+  </si>
+  <si>
+    <t>HATCHERYC</t>
+  </si>
+  <si>
+    <t>Mortality.Deviation</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -513,34 +513,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>35</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2012</v>
@@ -560,19 +560,19 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2">
         <v>95</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2014</v>
@@ -598,19 +598,19 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3">
         <v>94</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2014</v>
@@ -636,19 +636,19 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
       </c>
       <c r="J4">
         <v>100</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2012</v>
@@ -674,19 +674,19 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>106</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>2012</v>
@@ -712,19 +712,19 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>105</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>2012</v>
@@ -750,19 +750,19 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7">
         <v>99</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>2012</v>
@@ -788,19 +788,19 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J8">
         <v>108</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2013</v>
@@ -826,19 +826,19 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J9">
         <v>91</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>2014</v>
@@ -864,19 +864,19 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>105</v>
@@ -890,10 +890,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>2012</v>
@@ -902,19 +902,19 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>98</v>
@@ -928,10 +928,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>2012</v>
@@ -940,19 +940,19 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J12">
         <v>95</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>2014</v>
@@ -978,19 +978,19 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J13">
         <v>94</v>
@@ -1004,10 +1004,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>2014</v>
@@ -1016,19 +1016,19 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J14">
         <v>103</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>2013</v>
@@ -1054,19 +1054,19 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <v>92</v>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>2012</v>
@@ -1092,19 +1092,19 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J16">
         <v>109</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>2013</v>
@@ -1130,19 +1130,19 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
         <v>23</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>27</v>
       </c>
       <c r="J17">
         <v>90</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>2014</v>
@@ -1168,19 +1168,19 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
         <v>16</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
       </c>
       <c r="J18">
         <v>95</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>2013</v>
@@ -1206,19 +1206,19 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>2012</v>
@@ -1244,19 +1244,19 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
         <v>21</v>
-      </c>
-      <c r="I20" t="s">
-        <v>25</v>
       </c>
       <c r="J20">
         <v>96</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>2013</v>
@@ -1282,19 +1282,19 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J21">
         <v>110</v>
@@ -1308,10 +1308,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>2012</v>
@@ -1320,19 +1320,19 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J22">
         <v>90</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>2014</v>
@@ -1358,19 +1358,19 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J23">
         <v>100</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>2014</v>
@@ -1396,19 +1396,19 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
         <v>12</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
       </c>
       <c r="J24">
         <v>110</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>2014</v>
@@ -1434,19 +1434,19 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
         <v>12</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" t="s">
-        <v>15</v>
       </c>
       <c r="J25">
         <v>94</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>2013</v>
@@ -1472,19 +1472,19 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <v>109</v>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>2013</v>
@@ -1510,19 +1510,19 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J27">
         <v>91</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>2012</v>
@@ -1548,19 +1548,19 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J28">
         <v>110</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>2014</v>
@@ -1586,19 +1586,19 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J29">
         <v>104</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>2013</v>
@@ -1624,19 +1624,19 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>2013</v>
@@ -1662,19 +1662,19 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
         <v>17</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>21</v>
-      </c>
-      <c r="I31" t="s">
-        <v>25</v>
       </c>
       <c r="J31">
         <v>97</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>2013</v>
@@ -1700,19 +1700,19 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J32">
         <v>110</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>2014</v>
@@ -1738,19 +1738,19 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J33">
         <v>99</v>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>2012</v>
@@ -1776,19 +1776,19 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J34">
         <v>109</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35">
         <v>2013</v>
@@ -1814,19 +1814,19 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
         <v>12</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" t="s">
-        <v>15</v>
       </c>
       <c r="J35">
         <v>102</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>2014</v>
@@ -1852,19 +1852,19 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J36">
         <v>109</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>2012</v>
@@ -1890,19 +1890,19 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J37">
         <v>98</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>2012</v>
@@ -1928,19 +1928,19 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J38">
         <v>101</v>
@@ -1954,10 +1954,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>2012</v>
@@ -1966,19 +1966,19 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
         <v>12</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" t="s">
-        <v>15</v>
       </c>
       <c r="J39">
         <v>108</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>2014</v>
@@ -2004,19 +2004,19 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J40">
         <v>90</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>2013</v>
@@ -2042,19 +2042,19 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J41">
         <v>91</v>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>2012</v>
@@ -2080,19 +2080,19 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J42">
         <v>101</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>2014</v>
@@ -2118,19 +2118,19 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J43">
         <v>109</v>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>2014</v>
@@ -2156,19 +2156,19 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J44">
         <v>108</v>
@@ -2182,10 +2182,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>2013</v>
@@ -2194,19 +2194,19 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I45" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J45">
         <v>97</v>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>2013</v>
@@ -2232,19 +2232,19 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J46">
         <v>100</v>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>2013</v>
@@ -2270,19 +2270,19 @@
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J47">
         <v>106</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>2014</v>
@@ -2308,19 +2308,19 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J48">
         <v>94</v>
@@ -2334,10 +2334,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <v>2012</v>
@@ -2346,19 +2346,19 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J49">
         <v>108</v>
@@ -2372,10 +2372,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>2014</v>
@@ -2384,19 +2384,19 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J50">
         <v>94</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>2013</v>
@@ -2422,19 +2422,19 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H51" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J51">
         <v>105</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <v>2012</v>
@@ -2460,19 +2460,19 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J52">
         <v>110</v>
@@ -2486,10 +2486,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>2012</v>
@@ -2498,19 +2498,19 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J53">
         <v>94</v>
@@ -2524,10 +2524,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>2014</v>
@@ -2536,19 +2536,19 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J54">
         <v>104</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>2012</v>
@@ -2574,19 +2574,19 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J55">
         <v>95</v>
@@ -2600,10 +2600,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>2014</v>
@@ -2612,19 +2612,19 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J56">
         <v>107</v>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>2012</v>
@@ -2650,19 +2650,19 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J57">
         <v>102</v>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C58">
         <v>2014</v>
@@ -2688,19 +2688,19 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J58">
         <v>99</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C59">
         <v>2013</v>
@@ -2726,19 +2726,19 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J59">
         <v>95</v>
@@ -2752,10 +2752,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60">
         <v>2014</v>
@@ -2764,19 +2764,19 @@
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H60" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J60">
         <v>91</v>
@@ -2790,10 +2790,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C61">
         <v>2012</v>
@@ -2802,19 +2802,19 @@
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J61">
         <v>106</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C62">
         <v>2012</v>
@@ -2840,19 +2840,19 @@
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J62">
         <v>109</v>
@@ -2866,10 +2866,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C63">
         <v>2014</v>
@@ -2878,19 +2878,19 @@
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J63">
         <v>102</v>
@@ -2904,10 +2904,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C64">
         <v>2014</v>
@@ -2916,19 +2916,19 @@
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J64">
         <v>91</v>
@@ -2942,10 +2942,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C65">
         <v>2014</v>
@@ -2954,19 +2954,19 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J65">
         <v>101</v>
@@ -2980,10 +2980,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>2013</v>
@@ -2992,19 +2992,19 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J66">
         <v>103</v>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>2014</v>
@@ -3030,19 +3030,19 @@
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I67" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J67">
         <v>108</v>
@@ -3056,10 +3056,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68">
         <v>2013</v>
@@ -3068,19 +3068,19 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J68">
         <v>90</v>
@@ -3094,10 +3094,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C69">
         <v>2014</v>
@@ -3106,19 +3106,19 @@
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J69">
         <v>98</v>
@@ -3132,10 +3132,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <v>2012</v>
@@ -3144,19 +3144,19 @@
         <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J70">
         <v>104</v>
@@ -3170,10 +3170,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C71">
         <v>2012</v>
@@ -3182,19 +3182,19 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J71">
         <v>108</v>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C72">
         <v>2014</v>
@@ -3220,19 +3220,19 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J72">
         <v>108</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73">
         <v>2012</v>
@@ -3258,19 +3258,19 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J73">
         <v>93</v>
@@ -3284,10 +3284,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C74">
         <v>2014</v>
@@ -3296,19 +3296,19 @@
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J74">
         <v>90</v>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C75">
         <v>2012</v>
@@ -3334,19 +3334,19 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H75" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J75">
         <v>103</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C76">
         <v>2012</v>
@@ -3372,19 +3372,19 @@
         <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s">
         <v>21</v>
-      </c>
-      <c r="I76" t="s">
-        <v>25</v>
       </c>
       <c r="J76">
         <v>101</v>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C77">
         <v>2014</v>
@@ -3410,19 +3410,19 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I77" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J77">
         <v>109</v>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C78">
         <v>2013</v>
@@ -3448,19 +3448,19 @@
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J78">
         <v>106</v>
@@ -3474,10 +3474,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C79">
         <v>2012</v>
@@ -3486,19 +3486,19 @@
         <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J79">
         <v>102</v>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C80">
         <v>2013</v>
@@ -3524,19 +3524,19 @@
         <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J80">
         <v>97</v>
@@ -3550,10 +3550,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C81">
         <v>2012</v>
@@ -3562,19 +3562,19 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J81">
         <v>92</v>
@@ -3588,10 +3588,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C82">
         <v>2014</v>
@@ -3600,19 +3600,19 @@
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I82" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J82">
         <v>104</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C83">
         <v>2013</v>
@@ -3638,19 +3638,19 @@
         <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J83">
         <v>109</v>
@@ -3664,10 +3664,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C84">
         <v>2014</v>
@@ -3676,19 +3676,19 @@
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J84">
         <v>105</v>
@@ -3702,10 +3702,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C85">
         <v>2013</v>
@@ -3714,19 +3714,19 @@
         <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J85">
         <v>100</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C86">
         <v>2014</v>
@@ -3752,19 +3752,19 @@
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J86">
         <v>101</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87">
         <v>2012</v>
@@ -3790,19 +3790,19 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H87" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I87" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J87">
         <v>91</v>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88">
         <v>2014</v>
@@ -3828,19 +3828,19 @@
         <v>6</v>
       </c>
       <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
         <v>16</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" t="s">
-        <v>19</v>
       </c>
       <c r="J88">
         <v>95</v>
@@ -3854,10 +3854,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C89">
         <v>2014</v>
@@ -3866,19 +3866,19 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J89">
         <v>101</v>
@@ -3892,10 +3892,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C90">
         <v>2014</v>
@@ -3904,19 +3904,19 @@
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J90">
         <v>100</v>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91">
         <v>2014</v>
@@ -3942,19 +3942,19 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J91">
         <v>104</v>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <v>2013</v>
@@ -3980,19 +3980,19 @@
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I92" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J92">
         <v>100</v>
@@ -4006,10 +4006,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C93">
         <v>2013</v>
@@ -4018,19 +4018,19 @@
         <v>5</v>
       </c>
       <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" t="s">
         <v>16</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" t="s">
-        <v>26</v>
-      </c>
-      <c r="I93" t="s">
-        <v>19</v>
       </c>
       <c r="J93">
         <v>99</v>
@@ -4044,10 +4044,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94">
         <v>2013</v>
@@ -4056,19 +4056,19 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" t="s">
         <v>7</v>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" t="s">
-        <v>9</v>
-      </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J94">
         <v>101</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95">
         <v>2014</v>
@@ -4094,19 +4094,19 @@
         <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J95">
         <v>110</v>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C96">
         <v>2013</v>
@@ -4132,19 +4132,19 @@
         <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J96">
         <v>106</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97">
         <v>2012</v>
@@ -4170,19 +4170,19 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J97">
         <v>104</v>
@@ -4196,10 +4196,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C98">
         <v>2014</v>
@@ -4208,19 +4208,19 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I98" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J98">
         <v>92</v>
@@ -4234,10 +4234,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99">
         <v>2013</v>
@@ -4246,19 +4246,19 @@
         <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I99" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J99">
         <v>100</v>
@@ -4272,10 +4272,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100">
         <v>2014</v>
@@ -4284,19 +4284,19 @@
         <v>6</v>
       </c>
       <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s">
         <v>12</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
-      <c r="H100" t="s">
-        <v>21</v>
-      </c>
-      <c r="I100" t="s">
-        <v>15</v>
       </c>
       <c r="J100">
         <v>103</v>
@@ -4310,10 +4310,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C101">
         <v>2014</v>
@@ -4322,19 +4322,19 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" t="s">
+        <v>22</v>
+      </c>
+      <c r="I101" t="s">
         <v>23</v>
-      </c>
-      <c r="H101" t="s">
-        <v>26</v>
-      </c>
-      <c r="I101" t="s">
-        <v>27</v>
       </c>
       <c r="J101">
         <v>104</v>
@@ -4348,10 +4348,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>2014</v>
@@ -4360,19 +4360,19 @@
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H102" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J102">
         <v>97</v>
@@ -4386,10 +4386,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C103">
         <v>2013</v>
@@ -4398,19 +4398,19 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J103">
         <v>100</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C104">
         <v>2012</v>
@@ -4436,19 +4436,19 @@
         <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J104">
         <v>106</v>
@@ -4462,10 +4462,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C105">
         <v>2014</v>
@@ -4474,19 +4474,19 @@
         <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I105" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J105">
         <v>104</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C106">
         <v>2013</v>
@@ -4512,19 +4512,19 @@
         <v>6</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I106" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J106">
         <v>107</v>
@@ -4538,10 +4538,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C107">
         <v>2012</v>
@@ -4550,19 +4550,19 @@
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J107">
         <v>90</v>
@@ -4576,10 +4576,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C108">
         <v>2014</v>
@@ -4588,19 +4588,19 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I108" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J108">
         <v>102</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109">
         <v>2014</v>
@@ -4626,19 +4626,19 @@
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J109">
         <v>92</v>
@@ -4652,10 +4652,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C110">
         <v>2013</v>
@@ -4664,19 +4664,19 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I110" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J110">
         <v>99</v>
@@ -4690,10 +4690,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C111">
         <v>2013</v>
@@ -4702,19 +4702,19 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J111">
         <v>99</v>
@@ -4728,10 +4728,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112">
         <v>2014</v>
@@ -4740,19 +4740,19 @@
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I112" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J112">
         <v>102</v>
@@ -4766,10 +4766,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C113">
         <v>2012</v>
@@ -4778,19 +4778,19 @@
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I113" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J113">
         <v>106</v>
@@ -4804,10 +4804,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C114">
         <v>2012</v>
@@ -4816,19 +4816,19 @@
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J114">
         <v>95</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C115">
         <v>2012</v>
@@ -4854,19 +4854,19 @@
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J115">
         <v>92</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116">
         <v>2012</v>
@@ -4892,19 +4892,19 @@
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H116" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J116">
         <v>104</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C117">
         <v>2014</v>
@@ -4930,19 +4930,19 @@
         <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I117" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J117">
         <v>108</v>
@@ -4956,10 +4956,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C118">
         <v>2012</v>
@@ -4968,19 +4968,19 @@
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J118">
         <v>105</v>
@@ -4994,10 +4994,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C119">
         <v>2012</v>
@@ -5006,19 +5006,19 @@
         <v>4</v>
       </c>
       <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" t="s">
         <v>16</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119" t="s">
-        <v>8</v>
-      </c>
-      <c r="H119" t="s">
-        <v>24</v>
-      </c>
-      <c r="I119" t="s">
-        <v>19</v>
       </c>
       <c r="J119">
         <v>103</v>
@@ -5032,10 +5032,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120">
         <v>2014</v>
@@ -5044,19 +5044,19 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I120" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J120">
         <v>94</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121">
         <v>2012</v>
@@ -5082,19 +5082,19 @@
         <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F121">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J121">
         <v>106</v>
